--- a/www.eia.gov/electricity/monthly/xls/table_4_07_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_07_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
-  <si>
-    <t>Table 4.7.A. Receipts of Petroleum Liquids Delivered for Electricity Generation by State, October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+  <si>
+    <t>Table 4.7.A. Receipts of Petroleum Liquids Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Thousand Barrels)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -79,15 +79,15 @@
     <t>New Hampshire</t>
   </si>
   <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
     <t>Middle Atlantic</t>
   </si>
   <si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>North Dakota</t>
-  </si>
-  <si>
-    <t>NM</t>
   </si>
   <si>
     <t>South Dakota</t>
@@ -1361,25 +1358,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C6" s="13">
-        <v>614</v>
+        <v>500</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.86</v>
+        <v>-0.72</v>
       </c>
       <c r="E6" s="13">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="13">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="H6" s="13">
-        <v>614</v>
+        <v>498</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1388,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="13">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L6" s="13">
-        <v>0.14000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1399,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="D7" s="17">
-        <v>-0.99</v>
+        <v>-0.94</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1414,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" s="16">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1440,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="16">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1452,22 +1449,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="H8" s="16">
+        <v>182</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
         <v>2</v>
-      </c>
-      <c r="H8" s="16">
-        <v>121</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1475,25 +1472,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C9" s="16">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.62</v>
+        <v>-0.47</v>
       </c>
       <c r="E9" s="16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F9" s="16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G9" s="16">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="H9" s="16">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1513,19 +1510,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.98</v>
       </c>
       <c r="E10" s="16">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="F10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -1548,16 +1545,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.23</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1566,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1586,16 +1583,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
@@ -1627,25 +1624,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C13" s="13">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="D13" s="14">
-        <v>5.7000000000000002E-2</v>
+        <v>-0.69</v>
       </c>
       <c r="E13" s="13">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F13" s="13">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="G13" s="13">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H13" s="13">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1654,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L13" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1665,13 +1662,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="C14" s="16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D14" s="17">
-        <v>-0.99</v>
+        <v>-0.86</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1680,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1703,25 +1700,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C15" s="16">
-        <v>130</v>
+        <v>519</v>
       </c>
       <c r="D15" s="17">
-        <v>6.5000000000000002E-2</v>
+        <v>-0.76</v>
       </c>
       <c r="E15" s="16">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F15" s="16">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="G15" s="16">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H15" s="16">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1730,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="16">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D16" s="17">
-        <v>0.76</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1756,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H16" s="16">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1768,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L16" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1779,25 +1776,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C17" s="13">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D17" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>0.87</v>
       </c>
       <c r="E17" s="13">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F17" s="13">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G17" s="13">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H17" s="13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1806,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
         <v>1</v>
-      </c>
-      <c r="L17" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1817,25 +1814,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="16">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
+      <c r="G18" s="16">
+        <v>9</v>
+      </c>
+      <c r="H18" s="16">
         <v>7</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-0.15</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
-        <v>5</v>
-      </c>
-      <c r="H18" s="16">
-        <v>6</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1858,16 +1855,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.35</v>
+        <v>0.11</v>
       </c>
       <c r="E19" s="16">
         <v>14</v>
       </c>
       <c r="F19" s="16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
@@ -1893,19 +1890,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16">
         <v>10</v>
       </c>
-      <c r="C20" s="16">
-        <v>8</v>
-      </c>
       <c r="D20" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="E20" s="16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
@@ -1920,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="16">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="L20" s="16">
         <v>0.28000000000000003</v>
@@ -1931,25 +1928,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C21" s="16">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17">
-        <v>0.35</v>
+        <v>3.43</v>
       </c>
       <c r="E21" s="16">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F21" s="16">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G21" s="16">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H21" s="16">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1961,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="16">
-        <v>2</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1969,19 +1966,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F22" s="16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1999,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2007,22 +2004,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C23" s="13">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" s="13">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F23" s="13">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G23" s="13">
-        <v>4</v>
+        <v>0.38</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -2045,19 +2042,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="16">
+        <v>6</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="E24" s="16">
         <v>7</v>
       </c>
-      <c r="D24" s="17">
-        <v>0.41</v>
-      </c>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
       <c r="F24" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2083,19 +2080,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16">
-        <v>0.35</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17">
-        <v>-1</v>
+        <v>-0.41</v>
       </c>
       <c r="E25" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25" s="16">
-        <v>0.35</v>
+        <v>13</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2121,22 +2118,22 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C26" s="16">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17">
-        <v>0.68</v>
+        <v>-0.89</v>
       </c>
       <c r="E26" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="16">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G26" s="16">
-        <v>4</v>
+        <v>0.38</v>
       </c>
       <c r="H26" s="16">
         <v>0</v>
@@ -2159,19 +2156,19 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C27" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="17">
-        <v>0.1</v>
+        <v>0.79</v>
       </c>
       <c r="E27" s="16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F27" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -2197,19 +2194,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C28" s="16">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>0.41</v>
+      </c>
+      <c r="D28" s="17">
+        <v>-1</v>
       </c>
       <c r="E28" s="16">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2238,16 +2235,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="17">
+        <v>-0.38</v>
       </c>
       <c r="E29" s="16">
         <v>3</v>
       </c>
       <c r="F29" s="16">
-        <v>0.22</v>
+        <v>5</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2270,22 +2267,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="16">
-        <v>21</v>
-      </c>
-      <c r="D30" s="17">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2308,28 +2305,28 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="C31" s="13">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.28999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="E31" s="13">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="F31" s="13">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="G31" s="13">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H31" s="13">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2338,24 +2335,24 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L31" s="13">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C32" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="D32" s="17">
+        <v>-0.99</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2364,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="16">
-        <v>0.18</v>
+        <v>14</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2384,7 +2381,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="16">
         <v>0</v>
@@ -2393,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16">
         <v>0</v>
@@ -2422,25 +2419,25 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.64</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E34" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" s="16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G34" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16">
         <v>0</v>
@@ -2455,30 +2452,30 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C35" s="16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17">
-        <v>1.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E35" s="16">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F35" s="16">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="16">
         <v>0</v>
@@ -2490,24 +2487,24 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L35" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C36" s="16">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17">
-        <v>-0.56999999999999995</v>
+        <v>-0.11</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2516,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H36" s="16">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2536,28 +2533,28 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="16">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.59</v>
+        <v>-0.86</v>
       </c>
       <c r="E37" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="16">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G37" s="16">
         <v>0</v>
       </c>
       <c r="H37" s="16">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2569,28 +2566,28 @@
         <v>0</v>
       </c>
       <c r="L37" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="16">
+        <v>23</v>
+      </c>
+      <c r="C38" s="16">
+        <v>20</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="E38" s="16">
+        <v>12</v>
+      </c>
+      <c r="F38" s="16">
         <v>10</v>
       </c>
-      <c r="C38" s="16">
-        <v>29</v>
-      </c>
-      <c r="D38" s="17">
-        <v>-0.64</v>
-      </c>
-      <c r="E38" s="16">
-        <v>4</v>
-      </c>
-      <c r="F38" s="16">
-        <v>9</v>
-      </c>
       <c r="G38" s="16">
         <v>0</v>
       </c>
@@ -2604,36 +2601,36 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L38" s="16">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C39" s="16">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D39" s="17">
-        <v>0.28999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="E39" s="16">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="F39" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G39" s="16">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2642,33 +2639,33 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>8</v>
+        <v>0.16</v>
       </c>
       <c r="L39" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C40" s="16">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D40" s="17">
-        <v>-0.56999999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="E40" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="16">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G40" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H40" s="16">
         <v>0</v>
@@ -2688,22 +2685,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C41" s="13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D41" s="14">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="E41" s="13">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F41" s="13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
@@ -2721,27 +2718,27 @@
         <v>1</v>
       </c>
       <c r="L41" s="13">
-        <v>1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="16">
+        <v>2</v>
+      </c>
+      <c r="C42" s="16">
         <v>3</v>
       </c>
-      <c r="C42" s="16">
-        <v>0.36</v>
-      </c>
       <c r="D42" s="17">
-        <v>6.9</v>
+        <v>-0.35</v>
       </c>
       <c r="E42" s="16">
+        <v>2</v>
+      </c>
+      <c r="F42" s="16">
         <v>3</v>
-      </c>
-      <c r="F42" s="16">
-        <v>0.36</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
@@ -2764,22 +2761,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C43" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" s="17">
-        <v>-0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E43" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F43" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2802,19 +2799,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -2840,22 +2837,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C45" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45" s="17">
-        <v>3.23</v>
+        <v>2.42</v>
       </c>
       <c r="E45" s="16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F45" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2873,33 +2870,33 @@
         <v>1</v>
       </c>
       <c r="L45" s="16">
-        <v>1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C46" s="13">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D46" s="14">
-        <v>3.2</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E46" s="13">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F46" s="13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G46" s="13">
+        <v>2</v>
+      </c>
+      <c r="H46" s="13">
         <v>5</v>
-      </c>
-      <c r="H46" s="13">
-        <v>2</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2916,28 +2913,28 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="16">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17">
-        <v>1.81</v>
+        <v>-0.53</v>
       </c>
       <c r="E47" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="16">
+        <v>12</v>
+      </c>
+      <c r="G47" s="16">
         <v>1</v>
       </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
       <c r="H47" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2954,22 +2951,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="17">
-        <v>0.19</v>
+        <v>-1</v>
       </c>
       <c r="E48" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="16">
         <v>0</v>
@@ -2992,22 +2989,22 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E49" s="16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="16">
         <v>0</v>
@@ -3030,25 +3027,25 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="17">
-        <v>0.55000000000000004</v>
+        <v>-0.63</v>
       </c>
       <c r="E50" s="16">
         <v>2</v>
       </c>
       <c r="F50" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="16">
-        <v>5</v>
+        <v>0.17</v>
       </c>
       <c r="H50" s="16">
         <v>0</v>
@@ -3068,28 +3065,28 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="13">
+        <v>22</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="13">
+        <v>26</v>
+      </c>
+      <c r="F51" s="13">
         <v>20</v>
       </c>
-      <c r="D51" s="14">
-        <v>0.48</v>
-      </c>
-      <c r="E51" s="13">
-        <v>28</v>
-      </c>
-      <c r="F51" s="13">
-        <v>19</v>
-      </c>
       <c r="G51" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3106,22 +3103,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D52" s="17">
-        <v>5.27</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E52" s="16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3144,19 +3141,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E53" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="16">
         <v>0</v>
@@ -3191,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E54" s="16">
         <v>0</v>
@@ -3220,16 +3217,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" s="16">
-        <v>0</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0.22</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
@@ -3238,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3258,28 +3255,28 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="16">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16">
         <v>1</v>
       </c>
-      <c r="C56" s="16">
-        <v>2</v>
-      </c>
       <c r="D56" s="17">
-        <v>-0.52</v>
+        <v>-1</v>
       </c>
       <c r="E56" s="16">
         <v>0</v>
       </c>
       <c r="F56" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="16">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3296,22 +3293,22 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="16">
         <v>4</v>
       </c>
       <c r="C57" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" s="17">
-        <v>-0.25</v>
+        <v>0.63</v>
       </c>
       <c r="E57" s="16">
         <v>4</v>
       </c>
       <c r="F57" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3334,28 +3331,28 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58" s="16">
         <v>2</v>
       </c>
       <c r="D58" s="17">
-        <v>2.46</v>
+        <v>-0.47</v>
       </c>
       <c r="E58" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="16">
         <v>0</v>
       </c>
       <c r="H58" s="16">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3372,19 +3369,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16">
         <v>8</v>
       </c>
       <c r="D59" s="17">
-        <v>-0.88</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F59" s="16">
         <v>8</v>
@@ -3410,28 +3407,28 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="13">
+        <v>2</v>
+      </c>
+      <c r="C60" s="13">
+        <v>5</v>
+      </c>
+      <c r="D60" s="14">
+        <v>-0.62</v>
+      </c>
+      <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="C60" s="13">
-        <v>1</v>
-      </c>
-      <c r="D60" s="14">
-        <v>0</v>
-      </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
       <c r="F60" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G60" s="13">
         <v>1</v>
       </c>
       <c r="H60" s="13">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3448,7 +3445,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="16">
         <v>0</v>
@@ -3457,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3486,22 +3483,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="16">
         <v>0</v>
       </c>
       <c r="C62" s="16">
-        <v>0</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="D62" s="17">
+        <v>-1</v>
       </c>
       <c r="E62" s="16">
         <v>0</v>
       </c>
       <c r="F62" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -3524,28 +3521,28 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="16">
         <v>1</v>
       </c>
       <c r="D63" s="17">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E63" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="16">
         <v>1</v>
       </c>
       <c r="H63" s="16">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3562,28 +3559,28 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>683</v>
+        <v>736</v>
       </c>
       <c r="C64" s="13">
-        <v>894</v>
+        <v>814</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.24</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="F64" s="13">
-        <v>705</v>
+        <v>651</v>
       </c>
       <c r="G64" s="13">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H64" s="13">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3600,19 +3597,19 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="16">
         <v>2</v>
       </c>
       <c r="D65" s="17">
-        <v>0.65</v>
+        <v>-0.06</v>
       </c>
       <c r="E65" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" s="16">
         <v>2</v>
@@ -3638,28 +3635,28 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>680</v>
+        <v>734</v>
       </c>
       <c r="C66" s="16">
-        <v>892</v>
+        <v>812</v>
       </c>
       <c r="D66" s="17">
-        <v>-0.24</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="E66" s="16">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="F66" s="16">
-        <v>703</v>
+        <v>649</v>
       </c>
       <c r="G66" s="16">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H66" s="16">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3676,28 +3673,28 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>1370</v>
+        <v>1551</v>
       </c>
       <c r="C67" s="13">
-        <v>2137</v>
+        <v>2306</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.36</v>
+        <v>-0.33</v>
       </c>
       <c r="E67" s="13">
-        <v>845</v>
+        <v>1074</v>
       </c>
       <c r="F67" s="13">
-        <v>970</v>
+        <v>1386</v>
       </c>
       <c r="G67" s="13">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="H67" s="13">
-        <v>1131</v>
+        <v>891</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3706,15 +3703,15 @@
         <v>0</v>
       </c>
       <c r="K67" s="13">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L67" s="13">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
